--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Il7-Il7r.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Il7-Il7r.xlsx
@@ -82,16 +82,16 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Il7</t>
+  </si>
+  <si>
+    <t>Il7r</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Il7</t>
-  </si>
-  <si>
-    <t>Il7r</t>
   </si>
   <si>
     <t>Neutrophils</t>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.2744363333333333</v>
+        <v>0.05230133333333333</v>
       </c>
       <c r="H2">
-        <v>0.8233090000000001</v>
+        <v>0.156904</v>
       </c>
       <c r="I2">
-        <v>0.2264196034936386</v>
+        <v>0.05937840830565061</v>
       </c>
       <c r="J2">
-        <v>0.2264196034936386</v>
+        <v>0.0593784083056506</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>27.63663966666667</v>
+        <v>1.142536666666667</v>
       </c>
       <c r="N2">
-        <v>82.909919</v>
+        <v>3.42761</v>
       </c>
       <c r="O2">
-        <v>0.4201409441224363</v>
+        <v>0.009781118296225249</v>
       </c>
       <c r="P2">
-        <v>0.4201409441224363</v>
+        <v>0.009781118296225249</v>
       </c>
       <c r="Q2">
-        <v>7.584498055774556</v>
+        <v>0.05975619104888888</v>
       </c>
       <c r="R2">
-        <v>68.26048250197101</v>
+        <v>0.5378057194399999</v>
       </c>
       <c r="S2">
-        <v>0.09512814597964499</v>
+        <v>0.0005807872358791325</v>
       </c>
       <c r="T2">
-        <v>0.09512814597964499</v>
+        <v>0.0005807872358791325</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>25</v>
       </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.2744363333333333</v>
+        <v>0.05230133333333333</v>
       </c>
       <c r="H3">
-        <v>0.8233090000000001</v>
+        <v>0.156904</v>
       </c>
       <c r="I3">
-        <v>0.2264196034936386</v>
+        <v>0.05937840830565061</v>
       </c>
       <c r="J3">
-        <v>0.2264196034936386</v>
+        <v>0.0593784083056506</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>9.909265</v>
+        <v>36.03948033333334</v>
       </c>
       <c r="N3">
-        <v>29.727795</v>
+        <v>108.118441</v>
       </c>
       <c r="O3">
-        <v>0.1506437831398465</v>
+        <v>0.308529634767214</v>
       </c>
       <c r="P3">
-        <v>0.1506437831398465</v>
+        <v>0.308529634767214</v>
       </c>
       <c r="Q3">
-        <v>2.719462352628333</v>
+        <v>1.884912874073778</v>
       </c>
       <c r="R3">
-        <v>24.475161173655</v>
+        <v>16.964215866664</v>
       </c>
       <c r="S3">
-        <v>0.03410870564730573</v>
+        <v>0.01831999862760089</v>
       </c>
       <c r="T3">
-        <v>0.03410870564730573</v>
+        <v>0.01831999862760089</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.2744363333333333</v>
+        <v>0.05230133333333333</v>
       </c>
       <c r="H4">
-        <v>0.8233090000000001</v>
+        <v>0.156904</v>
       </c>
       <c r="I4">
-        <v>0.2264196034936386</v>
+        <v>0.05937840830565061</v>
       </c>
       <c r="J4">
-        <v>0.2264196034936386</v>
+        <v>0.0593784083056506</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,60 +685,60 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>28.23354400000001</v>
+        <v>9.050955999999999</v>
       </c>
       <c r="N4">
-        <v>84.70063200000001</v>
+        <v>27.152868</v>
       </c>
       <c r="O4">
-        <v>0.4292152727377173</v>
+        <v>0.07748414025801917</v>
       </c>
       <c r="P4">
-        <v>0.4292152727377173</v>
+        <v>0.07748414025801918</v>
       </c>
       <c r="Q4">
-        <v>7.748310292365335</v>
+        <v>0.4733770667413333</v>
       </c>
       <c r="R4">
-        <v>69.73479263128802</v>
+        <v>4.260393600672</v>
       </c>
       <c r="S4">
-        <v>0.09718275186668787</v>
+        <v>0.004600884917452962</v>
       </c>
       <c r="T4">
-        <v>0.09718275186668787</v>
+        <v>0.004600884917452962</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.7955433333333333</v>
+        <v>0.05230133333333333</v>
       </c>
       <c r="H5">
-        <v>2.38663</v>
+        <v>0.156904</v>
       </c>
       <c r="I5">
-        <v>0.6563511613331356</v>
+        <v>0.05937840830565061</v>
       </c>
       <c r="J5">
-        <v>0.6563511613331356</v>
+        <v>0.0593784083056506</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>27.63663966666667</v>
+        <v>70.57746033333335</v>
       </c>
       <c r="N5">
-        <v>82.909919</v>
+        <v>211.732381</v>
       </c>
       <c r="O5">
-        <v>0.4201409441224363</v>
+        <v>0.6042051066785415</v>
       </c>
       <c r="P5">
-        <v>0.4201409441224363</v>
+        <v>0.6042051066785417</v>
       </c>
       <c r="Q5">
-        <v>21.98614444255222</v>
+        <v>3.691295278713778</v>
       </c>
       <c r="R5">
-        <v>197.87529998297</v>
+        <v>33.221657508424</v>
       </c>
       <c r="S5">
-        <v>0.2757599965983611</v>
+        <v>0.03587673752471762</v>
       </c>
       <c r="T5">
-        <v>0.2757599965983611</v>
+        <v>0.03587673752471763</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -797,40 +797,40 @@
         <v>2.38663</v>
       </c>
       <c r="I6">
-        <v>0.6563511613331356</v>
+        <v>0.9031910634178537</v>
       </c>
       <c r="J6">
-        <v>0.6563511613331356</v>
+        <v>0.9031910634178536</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>9.909265</v>
+        <v>1.142536666666667</v>
       </c>
       <c r="N6">
-        <v>29.727795</v>
+        <v>3.42761</v>
       </c>
       <c r="O6">
-        <v>0.1506437831398465</v>
+        <v>0.009781118296225249</v>
       </c>
       <c r="P6">
-        <v>0.1506437831398465</v>
+        <v>0.009781118296225249</v>
       </c>
       <c r="Q6">
-        <v>7.883249708983333</v>
+        <v>0.9089374282555553</v>
       </c>
       <c r="R6">
-        <v>70.94924738085</v>
+        <v>8.180436854299998</v>
       </c>
       <c r="S6">
-        <v>0.09887522201145531</v>
+        <v>0.008834218635383508</v>
       </c>
       <c r="T6">
-        <v>0.09887522201145531</v>
+        <v>0.008834218635383508</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,10 +859,10 @@
         <v>2.38663</v>
       </c>
       <c r="I7">
-        <v>0.6563511613331356</v>
+        <v>0.9031910634178537</v>
       </c>
       <c r="J7">
-        <v>0.6563511613331356</v>
+        <v>0.9031910634178536</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,60 +871,60 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>28.23354400000001</v>
+        <v>36.03948033333334</v>
       </c>
       <c r="N7">
-        <v>84.70063200000001</v>
+        <v>108.118441</v>
       </c>
       <c r="O7">
-        <v>0.4292152727377173</v>
+        <v>0.308529634767214</v>
       </c>
       <c r="P7">
-        <v>0.4292152727377173</v>
+        <v>0.308529634767214</v>
       </c>
       <c r="Q7">
-        <v>22.46100770557334</v>
+        <v>28.67096831598111</v>
       </c>
       <c r="R7">
-        <v>202.14906935016</v>
+        <v>258.03871484383</v>
       </c>
       <c r="S7">
-        <v>0.2817159427233193</v>
+        <v>0.278661208921322</v>
       </c>
       <c r="T7">
-        <v>0.2817159427233193</v>
+        <v>0.278661208921322</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.02078766666666667</v>
+        <v>0.7955433333333333</v>
       </c>
       <c r="H8">
-        <v>0.062363</v>
+        <v>2.38663</v>
       </c>
       <c r="I8">
-        <v>0.01715055432732277</v>
+        <v>0.9031910634178537</v>
       </c>
       <c r="J8">
-        <v>0.01715055432732277</v>
+        <v>0.9031910634178536</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,60 +933,60 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>27.63663966666667</v>
+        <v>9.050955999999999</v>
       </c>
       <c r="N8">
-        <v>82.909919</v>
+        <v>27.152868</v>
       </c>
       <c r="O8">
-        <v>0.4201409441224363</v>
+        <v>0.07748414025801917</v>
       </c>
       <c r="P8">
-        <v>0.4201409441224363</v>
+        <v>0.07748414025801918</v>
       </c>
       <c r="Q8">
-        <v>0.5745012531774445</v>
+        <v>7.200427706093333</v>
       </c>
       <c r="R8">
-        <v>5.170511278597</v>
+        <v>64.80384935484</v>
       </c>
       <c r="S8">
-        <v>0.007205650087304525</v>
+        <v>0.06998298303765846</v>
       </c>
       <c r="T8">
-        <v>0.007205650087304525</v>
+        <v>0.06998298303765847</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.02078766666666667</v>
+        <v>0.7955433333333333</v>
       </c>
       <c r="H9">
-        <v>0.062363</v>
+        <v>2.38663</v>
       </c>
       <c r="I9">
-        <v>0.01715055432732277</v>
+        <v>0.9031910634178537</v>
       </c>
       <c r="J9">
-        <v>0.01715055432732277</v>
+        <v>0.9031910634178536</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>9.909265</v>
+        <v>70.57746033333335</v>
       </c>
       <c r="N9">
-        <v>29.727795</v>
+        <v>211.732381</v>
       </c>
       <c r="O9">
-        <v>0.1506437831398465</v>
+        <v>0.6042051066785415</v>
       </c>
       <c r="P9">
-        <v>0.1506437831398465</v>
+        <v>0.6042051066785417</v>
       </c>
       <c r="Q9">
-        <v>0.2059904977316666</v>
+        <v>56.14742805178112</v>
       </c>
       <c r="R9">
-        <v>1.853914479585</v>
+        <v>505.3268524660301</v>
       </c>
       <c r="S9">
-        <v>0.002583624386813368</v>
+        <v>0.5457126528234897</v>
       </c>
       <c r="T9">
-        <v>0.002583624386813368</v>
+        <v>0.5457126528234897</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1039,78 +1039,78 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.02078766666666667</v>
+        <v>0.03296933333333333</v>
       </c>
       <c r="H10">
-        <v>0.062363</v>
+        <v>0.098908</v>
       </c>
       <c r="I10">
-        <v>0.01715055432732277</v>
+        <v>0.03743052827649575</v>
       </c>
       <c r="J10">
-        <v>0.01715055432732277</v>
+        <v>0.03743052827649575</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>28.23354400000001</v>
+        <v>1.142536666666667</v>
       </c>
       <c r="N10">
-        <v>84.70063200000001</v>
+        <v>3.42761</v>
       </c>
       <c r="O10">
-        <v>0.4292152727377173</v>
+        <v>0.009781118296225249</v>
       </c>
       <c r="P10">
-        <v>0.4292152727377173</v>
+        <v>0.009781118296225249</v>
       </c>
       <c r="Q10">
-        <v>0.5869095014906668</v>
+        <v>0.03766867220888888</v>
       </c>
       <c r="R10">
-        <v>5.282185513416001</v>
+        <v>0.3390180498799999</v>
       </c>
       <c r="S10">
-        <v>0.00736127985320488</v>
+        <v>0.0003661124249626092</v>
       </c>
       <c r="T10">
-        <v>0.00736127985320488</v>
+        <v>0.0003661124249626092</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
         <v>23</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>25</v>
       </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.1213023333333333</v>
+        <v>0.03296933333333333</v>
       </c>
       <c r="H11">
-        <v>0.363907</v>
+        <v>0.098908</v>
       </c>
       <c r="I11">
-        <v>0.100078680845903</v>
+        <v>0.03743052827649575</v>
       </c>
       <c r="J11">
-        <v>0.100078680845903</v>
+        <v>0.03743052827649575</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,60 +1119,60 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>27.63663966666667</v>
+        <v>36.03948033333334</v>
       </c>
       <c r="N11">
-        <v>82.909919</v>
+        <v>108.118441</v>
       </c>
       <c r="O11">
-        <v>0.4201409441224363</v>
+        <v>0.308529634767214</v>
       </c>
       <c r="P11">
-        <v>0.4201409441224363</v>
+        <v>0.308529634767214</v>
       </c>
       <c r="Q11">
-        <v>3.352388877059222</v>
+        <v>1.188197640269778</v>
       </c>
       <c r="R11">
-        <v>30.171499893533</v>
+        <v>10.693778762428</v>
       </c>
       <c r="S11">
-        <v>0.04204715145712566</v>
+        <v>0.01154842721829111</v>
       </c>
       <c r="T11">
-        <v>0.04204715145712565</v>
+        <v>0.01154842721829111</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>26</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.1213023333333333</v>
+        <v>0.03296933333333333</v>
       </c>
       <c r="H12">
-        <v>0.363907</v>
+        <v>0.098908</v>
       </c>
       <c r="I12">
-        <v>0.100078680845903</v>
+        <v>0.03743052827649575</v>
       </c>
       <c r="J12">
-        <v>0.100078680845903</v>
+        <v>0.03743052827649575</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,60 +1181,60 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>9.909265</v>
+        <v>9.050955999999999</v>
       </c>
       <c r="N12">
-        <v>29.727795</v>
+        <v>27.152868</v>
       </c>
       <c r="O12">
-        <v>0.1506437831398465</v>
+        <v>0.07748414025801917</v>
       </c>
       <c r="P12">
-        <v>0.1506437831398465</v>
+        <v>0.07748414025801918</v>
       </c>
       <c r="Q12">
-        <v>1.202016966118333</v>
+        <v>0.2984039853493333</v>
       </c>
       <c r="R12">
-        <v>10.818152695065</v>
+        <v>2.685635868144</v>
       </c>
       <c r="S12">
-        <v>0.01507623109427212</v>
+        <v>0.002900272302907749</v>
       </c>
       <c r="T12">
-        <v>0.01507623109427212</v>
+        <v>0.00290027230290775</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
         <v>23</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.1213023333333333</v>
+        <v>0.03296933333333333</v>
       </c>
       <c r="H13">
-        <v>0.363907</v>
+        <v>0.098908</v>
       </c>
       <c r="I13">
-        <v>0.100078680845903</v>
+        <v>0.03743052827649575</v>
       </c>
       <c r="J13">
-        <v>0.100078680845903</v>
+        <v>0.03743052827649575</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>28.23354400000001</v>
+        <v>70.57746033333335</v>
       </c>
       <c r="N13">
-        <v>84.70063200000001</v>
+        <v>211.732381</v>
       </c>
       <c r="O13">
-        <v>0.4292152727377173</v>
+        <v>0.6042051066785415</v>
       </c>
       <c r="P13">
-        <v>0.4292152727377173</v>
+        <v>0.6042051066785417</v>
       </c>
       <c r="Q13">
-        <v>3.424794765469334</v>
+        <v>2.326891815549778</v>
       </c>
       <c r="R13">
-        <v>30.823152889224</v>
+        <v>20.942026339948</v>
       </c>
       <c r="S13">
-        <v>0.04295529829450521</v>
+        <v>0.02261571633033428</v>
       </c>
       <c r="T13">
-        <v>0.0429552982945052</v>
+        <v>0.02261571633033429</v>
       </c>
     </row>
   </sheetData>
